--- a/reporte_los_taques__falcn_gasolina_todos_2025-12-16.xlsx
+++ b/reporte_los_taques__falcn_gasolina_todos_2025-12-16.xlsx
@@ -323,11 +323,11 @@
   <oneCellAnchor>
     <from>
       <col>14</col>
-      <colOff>2286000</colOff>
+      <colOff>1619250</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1714500" cy="1714500"/>
+    <ext cx="2381250" cy="1714500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -666,7 +666,7 @@
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>INSTITUTO MUNICIPAL DE TRÁNSITO Y TRANSPORTE PÚBLICO DE PASAJEROS DEL MUNICIPIO CARIRUBANA</t>
+          <t>REGISTRO DE ORGANIZACIONES DE TRANSPORTE PUBLICO URBANO</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
@@ -687,7 +687,7 @@
       <c r="A2" s="1" t="n"/>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>REGISTRO DE ORGANIZACIONES DE TRANSPORTE PÚBLICO URBANO DEL MUNICIPIO CARIRUBANA</t>
+          <t>MUNICIPIO FALCÓN Y LOS TAQUES</t>
         </is>
       </c>
       <c r="C2" s="1" t="n"/>
